--- a/ProductBackLog.xlsx
+++ b/ProductBackLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TeamTapiru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tapiru\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,38 +165,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成者：勝部麻季人　作成日：2019/06/24
-更新者：勝部麻季人　更新日：2019/06/24</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">サクセイシャ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">コウシンビ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">サクセイシャ </t>
-    </rPh>
-    <rPh sb="7" eb="14">
-      <t xml:space="preserve">カツベ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">マ </t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t xml:space="preserve">キ </t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>_x0000__x0000__x0002_</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>_x0006__x0002__x0001__x000D__x0004_</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・自由なニックネームを入力してもらう。</t>
     <rPh sb="1" eb="3">
       <t xml:space="preserve">ジユウナ </t>
@@ -397,6 +364,50 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者：小川聖矢　作成日：2019/06/24
+更新者：小川聖矢　更新日：2019/06/24</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクセイシャ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">マ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>_x0006__x0002__x0001__x000D__x0004_</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t/>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -895,7 +906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -910,7 +921,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -919,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -956,13 +967,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -980,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -991,16 +1002,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1009,19 +1020,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1029,16 +1040,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -1050,13 +1061,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="4"/>
     </row>

--- a/ProductBackLog.xlsx
+++ b/ProductBackLog.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -70,13 +70,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ビコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マッチング機能</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">キノウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -223,26 +216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オンラインで２人で対戦する</t>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">ニン </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・オンラインで２人で対戦させる</t>
-    <rPh sb="8" eb="9">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対戦機能</t>
     <rPh sb="0" eb="2">
       <t>タイセン</t>
@@ -353,16 +326,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・勝ったプレイヤーのニックネームと'WIN!!'のUIを表示</t>
-    <rPh sb="1" eb="2">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,6 +370,35 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・勝ったプレイヤー側には勝利のUIを表示
+・負けらプレイヤー側には敗北のUIを表示</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -906,7 +898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -921,16 +913,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -964,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -982,19 +974,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1002,54 +994,54 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -1057,18 +1049,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">

--- a/ProductBackLog.xlsx
+++ b/ProductBackLog.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -131,49 +131,6 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t xml:space="preserve">セイリツ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ニックネーム入力機能</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>思い入れのある名前で楽しんでほしい</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">オモイイレ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ナマエ </t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">タノシンデ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・自由なニックネームを入力してもらう。</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ジユウナ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今回はNGワードのチェックは入れない</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コンカイハ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">イレナイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -898,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -913,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -922,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -959,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -974,19 +931,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -994,19 +951,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1014,16 +971,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1031,18 +988,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
